--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H2">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I2">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J2">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>10.6963822168236</v>
+        <v>0.076804</v>
       </c>
       <c r="N2">
-        <v>10.6963822168236</v>
+        <v>0.230412</v>
       </c>
       <c r="O2">
-        <v>0.1970494085155833</v>
+        <v>0.0008559845391981288</v>
       </c>
       <c r="P2">
-        <v>0.1970494085155833</v>
+        <v>0.000855984539198129</v>
       </c>
       <c r="Q2">
-        <v>73.54088890593964</v>
+        <v>0.07166614521733333</v>
       </c>
       <c r="R2">
-        <v>73.54088890593964</v>
+        <v>0.644995306956</v>
       </c>
       <c r="S2">
-        <v>0.06531054656932074</v>
+        <v>1.715227333445284E-05</v>
       </c>
       <c r="T2">
-        <v>0.06531054656932074</v>
+        <v>1.726489669193444E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -596,111 +599,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H3">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I3">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J3">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.5863598497566</v>
+        <v>12.39743733333333</v>
       </c>
       <c r="N3">
-        <v>43.5863598497566</v>
+        <v>37.192312</v>
       </c>
       <c r="O3">
-        <v>0.8029505914844167</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="P3">
-        <v>0.8029505914844167</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="Q3">
-        <v>299.6695127894493</v>
+        <v>11.56810249796178</v>
       </c>
       <c r="R3">
-        <v>299.6695127894493</v>
+        <v>104.112922481656</v>
       </c>
       <c r="S3">
-        <v>0.2661319432169694</v>
+        <v>0.00276866092635909</v>
       </c>
       <c r="T3">
-        <v>0.2661319432169694</v>
+        <v>0.002786840201092797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.846178422799589</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H4">
-        <v>8.846178422799589</v>
+        <v>2.799313</v>
       </c>
       <c r="I4">
-        <v>0.4264537283272617</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J4">
-        <v>0.4264537283272617</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6963822168236</v>
+        <v>77.25167833333333</v>
       </c>
       <c r="N4">
-        <v>10.6963822168236</v>
+        <v>231.755035</v>
       </c>
       <c r="O4">
-        <v>0.1970494085155833</v>
+        <v>0.8609739373006667</v>
       </c>
       <c r="P4">
-        <v>0.1970494085155833</v>
+        <v>0.8609739373006668</v>
       </c>
       <c r="Q4">
-        <v>94.62210556848217</v>
+        <v>72.08387581010612</v>
       </c>
       <c r="R4">
-        <v>94.62210556848217</v>
+        <v>648.754882290955</v>
       </c>
       <c r="S4">
-        <v>0.08403245492615218</v>
+        <v>0.01725225121502216</v>
       </c>
       <c r="T4">
-        <v>0.08403245492615218</v>
+        <v>0.01736553103619017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.846178422799589</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H5">
-        <v>8.846178422799589</v>
+        <v>22.398687</v>
       </c>
       <c r="I5">
-        <v>0.4264537283272617</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J5">
-        <v>0.4264537283272617</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>43.5863598497566</v>
+        <v>0.076804</v>
       </c>
       <c r="N5">
-        <v>43.5863598497566</v>
+        <v>0.230412</v>
       </c>
       <c r="O5">
-        <v>0.8029505914844167</v>
+        <v>0.0008559845391981288</v>
       </c>
       <c r="P5">
-        <v>0.8029505914844167</v>
+        <v>0.000855984539198129</v>
       </c>
       <c r="Q5">
-        <v>385.5727160312952</v>
+        <v>0.573436252116</v>
       </c>
       <c r="R5">
-        <v>385.5727160312952</v>
+        <v>5.160926269044</v>
       </c>
       <c r="S5">
-        <v>0.3424212734011096</v>
+        <v>0.000137243817235463</v>
       </c>
       <c r="T5">
-        <v>0.3424212734011096</v>
+        <v>0.0001381449723878591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.17172141548251</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H6">
-        <v>4.17172141548251</v>
+        <v>22.398687</v>
       </c>
       <c r="I6">
-        <v>0.2011090061884797</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J6">
-        <v>0.2011090061884797</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.6963822168236</v>
+        <v>12.39743733333333</v>
       </c>
       <c r="N6">
-        <v>10.6963822168236</v>
+        <v>37.192312</v>
       </c>
       <c r="O6">
-        <v>0.1970494085155833</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="P6">
-        <v>0.1970494085155833</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="Q6">
-        <v>44.6223267621093</v>
+        <v>92.56210614381602</v>
       </c>
       <c r="R6">
-        <v>44.6223267621093</v>
+        <v>833.0589552943442</v>
       </c>
       <c r="S6">
-        <v>0.03962841071659671</v>
+        <v>0.02215342460762598</v>
       </c>
       <c r="T6">
-        <v>0.03962841071659671</v>
+        <v>0.02229888597069874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.17172141548251</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H7">
-        <v>4.17172141548251</v>
+        <v>22.398687</v>
       </c>
       <c r="I7">
-        <v>0.2011090061884797</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J7">
-        <v>0.2011090061884797</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.5863598497566</v>
+        <v>77.25167833333333</v>
       </c>
       <c r="N7">
-        <v>43.5863598497566</v>
+        <v>231.755035</v>
       </c>
       <c r="O7">
-        <v>0.8029505914844167</v>
+        <v>0.8609739373006667</v>
       </c>
       <c r="P7">
-        <v>0.8029505914844167</v>
+        <v>0.8609739373006668</v>
       </c>
       <c r="Q7">
-        <v>181.8301508081566</v>
+        <v>576.7787210710051</v>
       </c>
       <c r="R7">
-        <v>181.8301508081566</v>
+        <v>5191.008489639045</v>
       </c>
       <c r="S7">
-        <v>0.161480595471883</v>
+        <v>0.1380437896764853</v>
       </c>
       <c r="T7">
-        <v>0.161480595471883</v>
+        <v>0.1389501975193232</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.85037854317592</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H8">
-        <v>0.85037854317592</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I8">
-        <v>0.04099477569796833</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J8">
-        <v>0.04099477569796833</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>10.6963822168236</v>
+        <v>0.076804</v>
       </c>
       <c r="N8">
-        <v>10.6963822168236</v>
+        <v>0.230412</v>
       </c>
       <c r="O8">
-        <v>0.1970494085155833</v>
+        <v>0.0008559845391981288</v>
       </c>
       <c r="P8">
-        <v>0.1970494085155833</v>
+        <v>0.000855984539198129</v>
       </c>
       <c r="Q8">
-        <v>9.095973926795271</v>
+        <v>2.233445061605333</v>
       </c>
       <c r="R8">
-        <v>9.095973926795271</v>
+        <v>20.101005554448</v>
       </c>
       <c r="S8">
-        <v>0.008077996303513668</v>
+        <v>0.0005345433336474908</v>
       </c>
       <c r="T8">
-        <v>0.008077996303513668</v>
+        <v>0.0005380531928819435</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.85037854317592</v>
+        <v>29.07980133333333</v>
       </c>
       <c r="H9">
-        <v>0.85037854317592</v>
+        <v>87.23940399999999</v>
       </c>
       <c r="I9">
-        <v>0.04099477569796833</v>
+        <v>0.6244777903912161</v>
       </c>
       <c r="J9">
-        <v>0.04099477569796833</v>
+        <v>0.6285781672949164</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.5863598497566</v>
+        <v>12.39743733333333</v>
       </c>
       <c r="N9">
-        <v>43.5863598497566</v>
+        <v>37.192312</v>
       </c>
       <c r="O9">
-        <v>0.8029505914844167</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="P9">
-        <v>0.8029505914844167</v>
+        <v>0.1381700781601351</v>
       </c>
       <c r="Q9">
-        <v>37.06490519137743</v>
+        <v>360.5150146957831</v>
       </c>
       <c r="R9">
-        <v>37.06490519137743</v>
+        <v>3244.635132262048</v>
       </c>
       <c r="S9">
-        <v>0.03291677939445466</v>
+        <v>0.08628414510762278</v>
       </c>
       <c r="T9">
-        <v>0.03291677939445466</v>
+        <v>0.08685069450489306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H10">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I10">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J10">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>77.25167833333333</v>
+      </c>
+      <c r="N10">
+        <v>231.755035</v>
+      </c>
+      <c r="O10">
+        <v>0.8609739373006667</v>
+      </c>
+      <c r="P10">
+        <v>0.8609739373006668</v>
+      </c>
+      <c r="Q10">
+        <v>2246.463458599904</v>
+      </c>
+      <c r="R10">
+        <v>20218.17112739914</v>
+      </c>
+      <c r="S10">
+        <v>0.5376591019499458</v>
+      </c>
+      <c r="T10">
+        <v>0.5411894195971415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H11">
+        <v>24.528474</v>
+      </c>
+      <c r="I11">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J11">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.076804</v>
+      </c>
+      <c r="N11">
+        <v>0.230412</v>
+      </c>
+      <c r="O11">
+        <v>0.0008559845391981288</v>
+      </c>
+      <c r="P11">
+        <v>0.000855984539198129</v>
+      </c>
+      <c r="Q11">
+        <v>0.6279616390320001</v>
+      </c>
+      <c r="R11">
+        <v>5.651654751288</v>
+      </c>
+      <c r="S11">
+        <v>0.0001502936936759197</v>
+      </c>
+      <c r="T11">
+        <v>0.0001512805354816699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H12">
+        <v>24.528474</v>
+      </c>
+      <c r="I12">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J12">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.39743733333333</v>
+      </c>
+      <c r="N12">
+        <v>37.192312</v>
+      </c>
+      <c r="O12">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="P12">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="Q12">
+        <v>101.363406432432</v>
+      </c>
+      <c r="R12">
+        <v>912.2706578918882</v>
+      </c>
+      <c r="S12">
+        <v>0.0242598907471279</v>
+      </c>
+      <c r="T12">
+        <v>0.0244191833548658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H13">
+        <v>24.528474</v>
+      </c>
+      <c r="I13">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J13">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>77.25167833333333</v>
+      </c>
+      <c r="N13">
+        <v>231.755035</v>
+      </c>
+      <c r="O13">
+        <v>0.8609739373006667</v>
+      </c>
+      <c r="P13">
+        <v>0.8609739373006668</v>
+      </c>
+      <c r="Q13">
+        <v>631.62192781851</v>
+      </c>
+      <c r="R13">
+        <v>5684.59735036659</v>
+      </c>
+      <c r="S13">
+        <v>0.1511697317767393</v>
+      </c>
+      <c r="T13">
+        <v>0.1521623257268422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9112975</v>
+      </c>
+      <c r="H14">
+        <v>1.822595</v>
+      </c>
+      <c r="I14">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J14">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.076804</v>
+      </c>
+      <c r="N14">
+        <v>0.230412</v>
+      </c>
+      <c r="O14">
+        <v>0.0008559845391981288</v>
+      </c>
+      <c r="P14">
+        <v>0.000855984539198129</v>
+      </c>
+      <c r="Q14">
+        <v>0.06999129319</v>
+      </c>
+      <c r="R14">
+        <v>0.41994775914</v>
+      </c>
+      <c r="S14">
+        <v>1.67514213048025E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.124094175472205E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9112975</v>
+      </c>
+      <c r="H15">
+        <v>1.822595</v>
+      </c>
+      <c r="I15">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J15">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.39743733333333</v>
+      </c>
+      <c r="N15">
+        <v>37.192312</v>
+      </c>
+      <c r="O15">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="P15">
+        <v>0.1381700781601351</v>
+      </c>
+      <c r="Q15">
+        <v>11.29775364827333</v>
+      </c>
+      <c r="R15">
+        <v>67.78652188964</v>
+      </c>
+      <c r="S15">
+        <v>0.002703956771399328</v>
+      </c>
+      <c r="T15">
+        <v>0.001814474128584665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9112975</v>
+      </c>
+      <c r="H16">
+        <v>1.822595</v>
+      </c>
+      <c r="I16">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J16">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>77.25167833333333</v>
+      </c>
+      <c r="N16">
+        <v>231.755035</v>
+      </c>
+      <c r="O16">
+        <v>0.8609739373006667</v>
+      </c>
+      <c r="P16">
+        <v>0.8609739373006668</v>
+      </c>
+      <c r="Q16">
+        <v>70.39926133597083</v>
+      </c>
+      <c r="R16">
+        <v>422.395568015825</v>
+      </c>
+      <c r="S16">
+        <v>0.01684906268247422</v>
+      </c>
+      <c r="T16">
+        <v>0.01130646342116977</v>
       </c>
     </row>
   </sheetData>
